--- a/data/trans_dic/P25A_5_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_5_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por asma</t>
+          <t>Población con limitación por asma (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -573,57 +586,87 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>2,47%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>32,83%</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,9</t>
+          <t>0,17; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,33</t>
+          <t>1,43; 3,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,96</t>
+          <t>0,75; 2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,99; 47,98</t>
+          <t>1,34; 3,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,6</t>
+          <t>1,38; 4,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,42</t>
+          <t>0,64; 3,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,83</t>
+          <t>0,51; 2,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,6; 44,26</t>
+          <t>1,62; 3,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,85</t>
+          <t>1,38; 3,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,63</t>
+          <t>1,77; 3,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,38</t>
+          <t>3,21; 6,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,71; 42,26</t>
+          <t>4,17; 7,93</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 1,54</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,37</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 2,69</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 3,36</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 4,44</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 5,2</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,51</t>
+          <t>0,43; 2,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,98</t>
+          <t>0,48; 2,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,74</t>
+          <t>0,74; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 69,7</t>
+          <t>0,93; 4,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,09</t>
+          <t>1,92; 7,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,79</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,61</t>
+          <t>2,43; 6,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 54,91</t>
+          <t>1,06; 3,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,67</t>
+          <t>1,84; 8,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,0</t>
+          <t>1,43; 6,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,67</t>
+          <t>3,75; 9,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,47; 51,52</t>
+          <t>3,35; 12,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 3,95</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 2,47</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 4,88</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 4,46</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 7,52</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 6,56</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,19</t>
+          <t>0,86; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,49; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,61</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 9,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,28</t>
+          <t>1,08; 9,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,45</t>
+          <t>1,08; 8,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>1,64; 7,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 8,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 6,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 5,33</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>3,24; 12,61</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 7,58</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 5,46</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 5,1</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 9,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,48%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>32,37%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,15</t>
+          <t>0,6; 2,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,31</t>
+          <t>1,24; 2,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,8</t>
+          <t>0,92; 2,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,33; 47,63</t>
+          <t>1,51; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,85; 4,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,01</t>
+          <t>0,72; 2,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,34</t>
+          <t>1,81; 3,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 42,46</t>
+          <t>1,73; 3,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,61</t>
+          <t>2,12; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,85</t>
+          <t>1,89; 3,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,83</t>
+          <t>3,76; 6,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,62; 41,78</t>
+          <t>4,62; 8,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 2,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 2,78</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 3,32</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 3,29</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 4,72</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por asma (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10388</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39212</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22266</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5384</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5446</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25040</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46784</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42387</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6229</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10397</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>105234</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>30502</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>85996</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>64653</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11612</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15843</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>130275</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2764; 29386</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23509; 63450</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12273; 38823</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3084; 8738</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3142; 9090</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10404; 52724</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9236; 39310</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29597; 69677</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24996; 65684</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4210; 9122</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7576; 14660</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>75245; 143058</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15549; 53262</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60457; 117061</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>42482; 92995</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8526; 15700</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11752; 20584</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92153; 179062</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15375</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16120</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24135</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56680</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27032</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50083</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2093</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>85343</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>72055</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43152</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>74218</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>89917</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5866; 33839</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6670; 33488</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10213; 52197</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>669; 3590</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1397; 5352</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18257</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33762; 95981</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14475; 50477</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25488; 119039</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>928; 4162</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2512; 6660</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>46669; 179277</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>45189; 109226</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25397; 67976</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>44825; 134785</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2081; 6129</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4768; 10518</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>53260; 182225</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9360</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5192</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15865</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15564</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16303</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27694</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>31823</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24924</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>21495</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>43560</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3642; 39708</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2045; 25295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18435</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4570; 38673</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4387; 36001</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6728; 32414</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6361; 33840</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13337; 51924</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14098; 62835</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11731; 45318</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9881; 42591</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>26606; 78335</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40372</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64691</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51593</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45480</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94008</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>89380</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>108773</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8322</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14729</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>218272</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>134380</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>154071</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>160366</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>22935</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>263751</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20816; 73749</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42726; 98172</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31607; 78922</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4560; 10718</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5542; 12790</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24781; 75189</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65042; 134752</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62478; 121311</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>76642; 165573</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5720; 11356</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11387; 18814</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>166666; 307708</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100100; 189812</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>117043; 195762</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>123386; 234682</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>11755; 19883</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17938; 28473</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>209374; 355897</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
